--- a/Financials/Quarterly/FCREY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/FCREY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716267E-2C94-4767-876E-3F14C5F92A48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCREY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FCREY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3048900</v>
+        <v>3220800</v>
       </c>
       <c r="E8" s="3">
-        <v>3253100</v>
+        <v>3104300</v>
       </c>
       <c r="F8" s="3">
-        <v>3184600</v>
+        <v>3312300</v>
       </c>
       <c r="G8" s="3">
-        <v>3069500</v>
+        <v>3242500</v>
       </c>
       <c r="H8" s="3">
-        <v>3040900</v>
+        <v>3125300</v>
       </c>
       <c r="I8" s="3">
-        <v>2950400</v>
+        <v>3096200</v>
       </c>
       <c r="J8" s="3">
+        <v>3004000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2883800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2879200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2293000</v>
+        <v>2340100</v>
       </c>
       <c r="E9" s="3">
-        <v>2888500</v>
+        <v>2218100</v>
       </c>
       <c r="F9" s="3">
-        <v>2542500</v>
+        <v>2819100</v>
       </c>
       <c r="G9" s="3">
-        <v>2327600</v>
+        <v>2588700</v>
       </c>
       <c r="H9" s="3">
-        <v>2275700</v>
+        <v>2369900</v>
       </c>
       <c r="I9" s="3">
-        <v>2227100</v>
+        <v>2317100</v>
       </c>
       <c r="J9" s="3">
+        <v>2267600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2185800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>755900</v>
+        <v>880800</v>
       </c>
       <c r="E10" s="3">
-        <v>364600</v>
+        <v>886200</v>
       </c>
       <c r="F10" s="3">
-        <v>642100</v>
+        <v>493200</v>
       </c>
       <c r="G10" s="3">
-        <v>741900</v>
+        <v>653800</v>
       </c>
       <c r="H10" s="3">
-        <v>765200</v>
+        <v>755400</v>
       </c>
       <c r="I10" s="3">
-        <v>723300</v>
+        <v>779100</v>
       </c>
       <c r="J10" s="3">
+        <v>736400</v>
+      </c>
+      <c r="K10" s="3">
         <v>698000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>704700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +862,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +892,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,37 +924,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>113100</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>5300</v>
+        <v>115200</v>
       </c>
       <c r="F14" s="3">
-        <v>157700</v>
+        <v>5400</v>
       </c>
       <c r="G14" s="3">
-        <v>15300</v>
+        <v>160600</v>
       </c>
       <c r="H14" s="3">
-        <v>-18000</v>
+        <v>15600</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-18300</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>56600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>48600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +988,11 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2913100</v>
+        <v>3073800</v>
       </c>
       <c r="E17" s="3">
-        <v>3467400</v>
+        <v>2966100</v>
       </c>
       <c r="F17" s="3">
-        <v>3198600</v>
+        <v>3530500</v>
       </c>
       <c r="G17" s="3">
-        <v>2873900</v>
+        <v>3256700</v>
       </c>
       <c r="H17" s="3">
-        <v>2754100</v>
+        <v>2926100</v>
       </c>
       <c r="I17" s="3">
-        <v>2758700</v>
+        <v>2804200</v>
       </c>
       <c r="J17" s="3">
+        <v>2808900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2698200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2730100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135700</v>
+        <v>147000</v>
       </c>
       <c r="E18" s="3">
-        <v>-214300</v>
+        <v>138200</v>
       </c>
       <c r="F18" s="3">
-        <v>-14000</v>
+        <v>-218200</v>
       </c>
       <c r="G18" s="3">
-        <v>195600</v>
+        <v>-14200</v>
       </c>
       <c r="H18" s="3">
-        <v>286800</v>
+        <v>199200</v>
       </c>
       <c r="I18" s="3">
-        <v>191600</v>
+        <v>292000</v>
       </c>
       <c r="J18" s="3">
+        <v>195100</v>
+      </c>
+      <c r="K18" s="3">
         <v>185600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1079,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-62500</v>
+        <v>-42000</v>
       </c>
       <c r="E20" s="3">
-        <v>-41900</v>
+        <v>-63700</v>
       </c>
       <c r="F20" s="3">
-        <v>-39300</v>
+        <v>-42700</v>
       </c>
       <c r="G20" s="3">
-        <v>-34600</v>
+        <v>-40000</v>
       </c>
       <c r="H20" s="3">
-        <v>-36600</v>
+        <v>-35200</v>
       </c>
       <c r="I20" s="3">
-        <v>-39900</v>
+        <v>-37300</v>
       </c>
       <c r="J20" s="3">
         <v>-40600</v>
       </c>
       <c r="K20" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="L20" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>142400</v>
+        <v>181600</v>
       </c>
       <c r="E21" s="3">
-        <v>-183000</v>
+        <v>145000</v>
       </c>
       <c r="F21" s="3">
-        <v>14000</v>
+        <v>-186300</v>
       </c>
       <c r="G21" s="3">
-        <v>228900</v>
+        <v>14200</v>
       </c>
       <c r="H21" s="3">
-        <v>314700</v>
+        <v>233100</v>
       </c>
       <c r="I21" s="3">
-        <v>216300</v>
+        <v>320500</v>
       </c>
       <c r="J21" s="3">
+        <v>220200</v>
+      </c>
+      <c r="K21" s="3">
         <v>210300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>73200</v>
+        <v>105000</v>
       </c>
       <c r="E23" s="3">
-        <v>-256200</v>
+        <v>74500</v>
       </c>
       <c r="F23" s="3">
-        <v>-53200</v>
+        <v>-260800</v>
       </c>
       <c r="G23" s="3">
-        <v>161000</v>
+        <v>-54200</v>
       </c>
       <c r="H23" s="3">
-        <v>250200</v>
+        <v>164000</v>
       </c>
       <c r="I23" s="3">
-        <v>151700</v>
+        <v>254700</v>
       </c>
       <c r="J23" s="3">
+        <v>154500</v>
+      </c>
+      <c r="K23" s="3">
         <v>145100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14000</v>
+        <v>41300</v>
       </c>
       <c r="E24" s="3">
-        <v>-77900</v>
+        <v>14200</v>
       </c>
       <c r="F24" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
-        <v>40600</v>
-      </c>
       <c r="H24" s="3">
-        <v>52600</v>
+        <v>41300</v>
       </c>
       <c r="I24" s="3">
-        <v>34600</v>
+        <v>53500</v>
       </c>
       <c r="J24" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K24" s="3">
         <v>37300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59200</v>
+        <v>63700</v>
       </c>
       <c r="E26" s="3">
-        <v>-178300</v>
+        <v>60300</v>
       </c>
       <c r="F26" s="3">
-        <v>-50600</v>
+        <v>-181600</v>
       </c>
       <c r="G26" s="3">
-        <v>120400</v>
+        <v>-51500</v>
       </c>
       <c r="H26" s="3">
-        <v>197600</v>
+        <v>122600</v>
       </c>
       <c r="I26" s="3">
-        <v>117100</v>
+        <v>201200</v>
       </c>
       <c r="J26" s="3">
+        <v>119200</v>
+      </c>
+      <c r="K26" s="3">
         <v>107800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>55200</v>
+        <v>60300</v>
       </c>
       <c r="E27" s="3">
-        <v>-181700</v>
+        <v>56200</v>
       </c>
       <c r="F27" s="3">
-        <v>-54600</v>
+        <v>-185000</v>
       </c>
       <c r="G27" s="3">
-        <v>117100</v>
+        <v>-55600</v>
       </c>
       <c r="H27" s="3">
-        <v>193000</v>
+        <v>119200</v>
       </c>
       <c r="I27" s="3">
-        <v>114400</v>
+        <v>196500</v>
       </c>
       <c r="J27" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K27" s="3">
         <v>103800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1365,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1397,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1461,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>62500</v>
+        <v>42000</v>
       </c>
       <c r="E32" s="3">
-        <v>41900</v>
+        <v>63700</v>
       </c>
       <c r="F32" s="3">
-        <v>39300</v>
+        <v>42700</v>
       </c>
       <c r="G32" s="3">
-        <v>34600</v>
+        <v>40000</v>
       </c>
       <c r="H32" s="3">
-        <v>36600</v>
+        <v>35200</v>
       </c>
       <c r="I32" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="J32" s="3">
         <v>40600</v>
       </c>
       <c r="K32" s="3">
+        <v>40600</v>
+      </c>
+      <c r="L32" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>55200</v>
+        <v>60300</v>
       </c>
       <c r="E33" s="3">
-        <v>-181700</v>
+        <v>56200</v>
       </c>
       <c r="F33" s="3">
-        <v>-54600</v>
+        <v>-185000</v>
       </c>
       <c r="G33" s="3">
-        <v>117100</v>
+        <v>-55600</v>
       </c>
       <c r="H33" s="3">
-        <v>193000</v>
+        <v>119200</v>
       </c>
       <c r="I33" s="3">
-        <v>114400</v>
+        <v>196500</v>
       </c>
       <c r="J33" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K33" s="3">
         <v>103800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>55200</v>
+        <v>60300</v>
       </c>
       <c r="E35" s="3">
-        <v>-181700</v>
+        <v>56200</v>
       </c>
       <c r="F35" s="3">
-        <v>-54600</v>
+        <v>-185000</v>
       </c>
       <c r="G35" s="3">
-        <v>117100</v>
+        <v>-55600</v>
       </c>
       <c r="H35" s="3">
-        <v>193000</v>
+        <v>119200</v>
       </c>
       <c r="I35" s="3">
-        <v>114400</v>
+        <v>196500</v>
       </c>
       <c r="J35" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K35" s="3">
         <v>103800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1656,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>442500</v>
+        <v>192400</v>
       </c>
       <c r="E41" s="3">
-        <v>126400</v>
+        <v>450500</v>
       </c>
       <c r="F41" s="3">
-        <v>145700</v>
+        <v>128700</v>
       </c>
       <c r="G41" s="3">
-        <v>152400</v>
+        <v>148400</v>
       </c>
       <c r="H41" s="3">
-        <v>236900</v>
+        <v>155100</v>
       </c>
       <c r="I41" s="3">
-        <v>147100</v>
+        <v>241200</v>
       </c>
       <c r="J41" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K41" s="3">
         <v>151700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,211 +1718,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1131800</v>
+        <v>858400</v>
       </c>
       <c r="E43" s="3">
-        <v>1000100</v>
+        <v>1178200</v>
       </c>
       <c r="F43" s="3">
-        <v>1024700</v>
+        <v>1026400</v>
       </c>
       <c r="G43" s="3">
-        <v>889000</v>
+        <v>1043400</v>
       </c>
       <c r="H43" s="3">
-        <v>907600</v>
+        <v>905100</v>
       </c>
       <c r="I43" s="3">
-        <v>886300</v>
+        <v>924100</v>
       </c>
       <c r="J43" s="3">
+        <v>902400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1019400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>883000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1163100</v>
+        <v>1189700</v>
       </c>
       <c r="E44" s="3">
-        <v>1197700</v>
+        <v>1184300</v>
       </c>
       <c r="F44" s="3">
-        <v>1099200</v>
+        <v>1219500</v>
       </c>
       <c r="G44" s="3">
-        <v>1154500</v>
+        <v>1119200</v>
       </c>
       <c r="H44" s="3">
-        <v>984100</v>
+        <v>1175500</v>
       </c>
       <c r="I44" s="3">
-        <v>1034700</v>
+        <v>1002000</v>
       </c>
       <c r="J44" s="3">
+        <v>1053500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1002100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>938900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>15300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>77900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2741400</v>
+        <v>2532500</v>
       </c>
       <c r="E46" s="3">
-        <v>2328200</v>
+        <v>2817000</v>
       </c>
       <c r="F46" s="3">
-        <v>2275000</v>
+        <v>2378700</v>
       </c>
       <c r="G46" s="3">
-        <v>2203800</v>
+        <v>2316400</v>
       </c>
       <c r="H46" s="3">
-        <v>2143900</v>
+        <v>2243900</v>
       </c>
       <c r="I46" s="3">
-        <v>2145900</v>
+        <v>2182900</v>
       </c>
       <c r="J46" s="3">
+        <v>2184900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2177200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1939600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99800</v>
+        <v>102300</v>
       </c>
       <c r="E47" s="3">
-        <v>103100</v>
+        <v>101600</v>
       </c>
       <c r="F47" s="3">
-        <v>98500</v>
+        <v>105000</v>
       </c>
       <c r="G47" s="3">
-        <v>122400</v>
+        <v>100300</v>
       </c>
       <c r="H47" s="3">
-        <v>118400</v>
+        <v>124700</v>
       </c>
       <c r="I47" s="3">
-        <v>101100</v>
+        <v>120600</v>
       </c>
       <c r="J47" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K47" s="3">
         <v>111800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1491200</v>
+        <v>1142900</v>
       </c>
       <c r="E48" s="3">
-        <v>1495200</v>
+        <v>1518300</v>
       </c>
       <c r="F48" s="3">
-        <v>1473200</v>
+        <v>1522300</v>
       </c>
       <c r="G48" s="3">
-        <v>1423300</v>
+        <v>1500000</v>
       </c>
       <c r="H48" s="3">
-        <v>1319500</v>
+        <v>1449200</v>
       </c>
       <c r="I48" s="3">
-        <v>1353400</v>
+        <v>1343500</v>
       </c>
       <c r="J48" s="3">
+        <v>1378000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1478500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1418000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1121900</v>
+        <v>758100</v>
       </c>
       <c r="E49" s="3">
-        <v>1156500</v>
+        <v>1142300</v>
       </c>
       <c r="F49" s="3">
-        <v>1116500</v>
+        <v>1177500</v>
       </c>
       <c r="G49" s="3">
-        <v>1243000</v>
+        <v>1136800</v>
       </c>
       <c r="H49" s="3">
-        <v>1133800</v>
+        <v>1265600</v>
       </c>
       <c r="I49" s="3">
-        <v>1137200</v>
+        <v>1154500</v>
       </c>
       <c r="J49" s="3">
+        <v>1157800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1130500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1049300</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>222900</v>
+        <v>905800</v>
       </c>
       <c r="E52" s="3">
-        <v>221600</v>
+        <v>227000</v>
       </c>
       <c r="F52" s="3">
-        <v>142400</v>
+        <v>225600</v>
       </c>
       <c r="G52" s="3">
-        <v>85800</v>
+        <v>145000</v>
       </c>
       <c r="H52" s="3">
-        <v>119800</v>
+        <v>87400</v>
       </c>
       <c r="I52" s="3">
-        <v>84500</v>
+        <v>122000</v>
       </c>
       <c r="J52" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K52" s="3">
         <v>93200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5677200</v>
+        <v>5441700</v>
       </c>
       <c r="E54" s="3">
-        <v>5304600</v>
+        <v>5806200</v>
       </c>
       <c r="F54" s="3">
-        <v>5105600</v>
+        <v>5409200</v>
       </c>
       <c r="G54" s="3">
-        <v>5078300</v>
+        <v>5198500</v>
       </c>
       <c r="H54" s="3">
-        <v>4835500</v>
+        <v>5170700</v>
       </c>
       <c r="I54" s="3">
-        <v>4822200</v>
+        <v>4923400</v>
       </c>
       <c r="J54" s="3">
+        <v>4909800</v>
+      </c>
+      <c r="K54" s="3">
         <v>4991200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4607900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2132,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1029400</v>
+        <v>778400</v>
       </c>
       <c r="E57" s="3">
-        <v>910900</v>
+        <v>1048100</v>
       </c>
       <c r="F57" s="3">
-        <v>935600</v>
+        <v>927500</v>
       </c>
       <c r="G57" s="3">
-        <v>845100</v>
+        <v>952600</v>
       </c>
       <c r="H57" s="3">
-        <v>893000</v>
+        <v>860400</v>
       </c>
       <c r="I57" s="3">
-        <v>735300</v>
+        <v>909200</v>
       </c>
       <c r="J57" s="3">
+        <v>748600</v>
+      </c>
+      <c r="K57" s="3">
         <v>875000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>743900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>123100</v>
+        <v>294000</v>
       </c>
       <c r="E58" s="3">
-        <v>1131800</v>
+        <v>125300</v>
       </c>
       <c r="F58" s="3">
-        <v>179000</v>
+        <v>1152400</v>
       </c>
       <c r="G58" s="3">
-        <v>208900</v>
+        <v>182200</v>
       </c>
       <c r="H58" s="3">
-        <v>274800</v>
+        <v>212700</v>
       </c>
       <c r="I58" s="3">
-        <v>306700</v>
+        <v>279800</v>
       </c>
       <c r="J58" s="3">
+        <v>312300</v>
+      </c>
+      <c r="K58" s="3">
         <v>226200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>497700</v>
+        <v>519600</v>
       </c>
       <c r="E59" s="3">
-        <v>554900</v>
+        <v>956600</v>
       </c>
       <c r="F59" s="3">
-        <v>213600</v>
+        <v>1069100</v>
       </c>
       <c r="G59" s="3">
-        <v>87800</v>
+        <v>217500</v>
       </c>
       <c r="H59" s="3">
-        <v>161000</v>
+        <v>89400</v>
       </c>
       <c r="I59" s="3">
-        <v>195600</v>
+        <v>164000</v>
       </c>
       <c r="J59" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K59" s="3">
         <v>194300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134400</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1650200</v>
+        <v>1592100</v>
       </c>
       <c r="E60" s="3">
-        <v>2597700</v>
+        <v>1705900</v>
       </c>
       <c r="F60" s="3">
-        <v>1328100</v>
+        <v>2653100</v>
       </c>
       <c r="G60" s="3">
-        <v>1141800</v>
+        <v>1352300</v>
       </c>
       <c r="H60" s="3">
-        <v>1328800</v>
+        <v>1162600</v>
       </c>
       <c r="I60" s="3">
-        <v>1237600</v>
+        <v>1353000</v>
       </c>
       <c r="J60" s="3">
+        <v>1260200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1295500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1079300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1166400</v>
+        <v>917300</v>
       </c>
       <c r="E61" s="3">
-        <v>403900</v>
+        <v>1187700</v>
       </c>
       <c r="F61" s="3">
-        <v>1266300</v>
+        <v>411200</v>
       </c>
       <c r="G61" s="3">
-        <v>1301500</v>
+        <v>1289300</v>
       </c>
       <c r="H61" s="3">
-        <v>891000</v>
+        <v>1325200</v>
       </c>
       <c r="I61" s="3">
-        <v>1022700</v>
+        <v>907200</v>
       </c>
       <c r="J61" s="3">
+        <v>1041300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1074000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1072600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>104500</v>
+        <v>106400</v>
       </c>
       <c r="E62" s="3">
-        <v>110500</v>
+        <v>106400</v>
       </c>
       <c r="F62" s="3">
-        <v>129100</v>
+        <v>112500</v>
       </c>
       <c r="G62" s="3">
-        <v>154400</v>
+        <v>131400</v>
       </c>
       <c r="H62" s="3">
-        <v>145100</v>
+        <v>157200</v>
       </c>
       <c r="I62" s="3">
-        <v>140400</v>
+        <v>147700</v>
       </c>
       <c r="J62" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K62" s="3">
         <v>153000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2937100</v>
+        <v>2631400</v>
       </c>
       <c r="E66" s="3">
-        <v>3128000</v>
+        <v>3016200</v>
       </c>
       <c r="F66" s="3">
-        <v>2739500</v>
+        <v>3193100</v>
       </c>
       <c r="G66" s="3">
-        <v>2611700</v>
+        <v>2789300</v>
       </c>
       <c r="H66" s="3">
-        <v>2379500</v>
+        <v>2659200</v>
       </c>
       <c r="I66" s="3">
-        <v>2414100</v>
+        <v>2422700</v>
       </c>
       <c r="J66" s="3">
+        <v>2458000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2540500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2318300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2528,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2560,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>600900</v>
+        <v>659900</v>
       </c>
       <c r="E72" s="3">
-        <v>545000</v>
+        <v>611800</v>
       </c>
       <c r="F72" s="3">
-        <v>817800</v>
+        <v>554900</v>
       </c>
       <c r="G72" s="3">
-        <v>966200</v>
+        <v>832600</v>
       </c>
       <c r="H72" s="3">
-        <v>939500</v>
+        <v>983700</v>
       </c>
       <c r="I72" s="3">
-        <v>833100</v>
+        <v>956600</v>
       </c>
       <c r="J72" s="3">
+        <v>848200</v>
+      </c>
+      <c r="K72" s="3">
         <v>698700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>543600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2740100</v>
+        <v>2810300</v>
       </c>
       <c r="E76" s="3">
-        <v>2176500</v>
+        <v>2789900</v>
       </c>
       <c r="F76" s="3">
-        <v>2366200</v>
+        <v>2216100</v>
       </c>
       <c r="G76" s="3">
-        <v>2466600</v>
+        <v>2409200</v>
       </c>
       <c r="H76" s="3">
-        <v>2456000</v>
+        <v>2511500</v>
       </c>
       <c r="I76" s="3">
-        <v>2408100</v>
+        <v>2500700</v>
       </c>
       <c r="J76" s="3">
+        <v>2451900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2450700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2289600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>55200</v>
+        <v>60300</v>
       </c>
       <c r="E81" s="3">
-        <v>-181700</v>
+        <v>56200</v>
       </c>
       <c r="F81" s="3">
-        <v>-54600</v>
+        <v>-185000</v>
       </c>
       <c r="G81" s="3">
-        <v>117100</v>
+        <v>-55600</v>
       </c>
       <c r="H81" s="3">
-        <v>193000</v>
+        <v>119200</v>
       </c>
       <c r="I81" s="3">
-        <v>114400</v>
+        <v>196500</v>
       </c>
       <c r="J81" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K81" s="3">
         <v>103800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2869,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>69200</v>
+        <v>76600</v>
       </c>
       <c r="E83" s="3">
-        <v>73200</v>
+        <v>70500</v>
       </c>
       <c r="F83" s="3">
-        <v>67200</v>
+        <v>74500</v>
       </c>
       <c r="G83" s="3">
-        <v>67900</v>
+        <v>68400</v>
       </c>
       <c r="H83" s="3">
-        <v>64500</v>
+        <v>69100</v>
       </c>
       <c r="I83" s="3">
-        <v>64500</v>
+        <v>65700</v>
       </c>
       <c r="J83" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K83" s="3">
         <v>65200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>190300</v>
+        <v>-101600</v>
       </c>
       <c r="E89" s="3">
-        <v>73200</v>
+        <v>193800</v>
       </c>
       <c r="F89" s="3">
-        <v>206300</v>
+        <v>74500</v>
       </c>
       <c r="G89" s="3">
-        <v>-44600</v>
+        <v>210000</v>
       </c>
       <c r="H89" s="3">
-        <v>326000</v>
+        <v>-45400</v>
       </c>
       <c r="I89" s="3">
-        <v>113100</v>
+        <v>332000</v>
       </c>
       <c r="J89" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K89" s="3">
         <v>285500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115100</v>
+        <v>-94200</v>
       </c>
       <c r="E91" s="3">
-        <v>-87200</v>
+        <v>-117200</v>
       </c>
       <c r="F91" s="3">
-        <v>-127800</v>
+        <v>-88800</v>
       </c>
       <c r="G91" s="3">
-        <v>-84500</v>
+        <v>-130100</v>
       </c>
       <c r="H91" s="3">
-        <v>-118400</v>
+        <v>-86000</v>
       </c>
       <c r="I91" s="3">
-        <v>-81200</v>
+        <v>-120600</v>
       </c>
       <c r="J91" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-107800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74500</v>
+        <v>-46100</v>
       </c>
       <c r="E94" s="3">
-        <v>-77200</v>
+        <v>-75900</v>
       </c>
       <c r="F94" s="3">
-        <v>-116400</v>
+        <v>-78600</v>
       </c>
       <c r="G94" s="3">
-        <v>-287500</v>
+        <v>-118600</v>
       </c>
       <c r="H94" s="3">
-        <v>18000</v>
+        <v>-292700</v>
       </c>
       <c r="I94" s="3">
-        <v>-49900</v>
+        <v>18300</v>
       </c>
       <c r="J94" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-84500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3249,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2990,28 +3259,31 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-81800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-81800</v>
+        <v>-83300</v>
       </c>
       <c r="G96" s="3">
-        <v>-81800</v>
+        <v>-83300</v>
       </c>
       <c r="H96" s="3">
-        <v>-77900</v>
+        <v>-83300</v>
       </c>
       <c r="I96" s="3">
-        <v>-78500</v>
+        <v>-79300</v>
       </c>
       <c r="J96" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-77200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3375,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>199000</v>
+        <v>-109800</v>
       </c>
       <c r="E100" s="3">
-        <v>-18000</v>
+        <v>202600</v>
       </c>
       <c r="F100" s="3">
-        <v>-94500</v>
+        <v>-18300</v>
       </c>
       <c r="G100" s="3">
-        <v>246900</v>
+        <v>-96200</v>
       </c>
       <c r="H100" s="3">
-        <v>-249500</v>
+        <v>251400</v>
       </c>
       <c r="I100" s="3">
-        <v>-63200</v>
+        <v>-254100</v>
       </c>
       <c r="J100" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-137700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-46600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1300</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-4700</v>
       </c>
       <c r="I101" s="3">
         <v>-4700</v>
       </c>
       <c r="J101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>316100</v>
+        <v>-258100</v>
       </c>
       <c r="E102" s="3">
-        <v>-19300</v>
+        <v>321800</v>
       </c>
       <c r="F102" s="3">
-        <v>-6700</v>
+        <v>-19600</v>
       </c>
       <c r="G102" s="3">
-        <v>-84500</v>
+        <v>-6800</v>
       </c>
       <c r="H102" s="3">
-        <v>89800</v>
+        <v>-86000</v>
       </c>
       <c r="I102" s="3">
+        <v>91500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>69200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/Financials/Quarterly/FCREY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/FCREY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716267E-2C94-4767-876E-3F14C5F92A48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="FCREY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>FCREY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,168 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3220800</v>
+        <v>2294500</v>
       </c>
       <c r="E8" s="3">
-        <v>3104300</v>
+        <v>3069200</v>
       </c>
       <c r="F8" s="3">
-        <v>3312300</v>
+        <v>2144700</v>
       </c>
       <c r="G8" s="3">
-        <v>3242500</v>
+        <v>3156300</v>
       </c>
       <c r="H8" s="3">
-        <v>3125300</v>
+        <v>3089800</v>
       </c>
       <c r="I8" s="3">
-        <v>3096200</v>
+        <v>2978200</v>
       </c>
       <c r="J8" s="3">
+        <v>2950400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3004000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2883800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2879200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2340100</v>
+        <v>1659800</v>
       </c>
       <c r="E9" s="3">
-        <v>2218100</v>
+        <v>2229900</v>
       </c>
       <c r="F9" s="3">
-        <v>2819100</v>
+        <v>1563600</v>
       </c>
       <c r="G9" s="3">
-        <v>2588700</v>
+        <v>2686300</v>
       </c>
       <c r="H9" s="3">
-        <v>2369900</v>
+        <v>2466800</v>
       </c>
       <c r="I9" s="3">
-        <v>2317100</v>
+        <v>2258300</v>
       </c>
       <c r="J9" s="3">
+        <v>2208000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2267600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2185800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2174500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>880800</v>
+        <v>634600</v>
       </c>
       <c r="E10" s="3">
-        <v>886200</v>
+        <v>839300</v>
       </c>
       <c r="F10" s="3">
-        <v>493200</v>
+        <v>581000</v>
       </c>
       <c r="G10" s="3">
-        <v>653800</v>
+        <v>470000</v>
       </c>
       <c r="H10" s="3">
-        <v>755400</v>
+        <v>623000</v>
       </c>
       <c r="I10" s="3">
-        <v>779100</v>
+        <v>719800</v>
       </c>
       <c r="J10" s="3">
+        <v>742400</v>
+      </c>
+      <c r="K10" s="3">
         <v>736400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>698000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>704700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +841,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +874,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,40 +909,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>115200</v>
-      </c>
       <c r="F14" s="3">
-        <v>5400</v>
+        <v>97500</v>
       </c>
       <c r="G14" s="3">
-        <v>160600</v>
+        <v>5200</v>
       </c>
       <c r="H14" s="3">
-        <v>15600</v>
+        <v>153000</v>
       </c>
       <c r="I14" s="3">
-        <v>-18300</v>
+        <v>14800</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-17400</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>56600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>48600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,8 +979,11 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3073800</v>
+        <v>2140800</v>
       </c>
       <c r="E17" s="3">
-        <v>2966100</v>
+        <v>2929100</v>
       </c>
       <c r="F17" s="3">
-        <v>3530500</v>
+        <v>2051700</v>
       </c>
       <c r="G17" s="3">
-        <v>3256700</v>
+        <v>3364200</v>
       </c>
       <c r="H17" s="3">
-        <v>2926100</v>
+        <v>3103400</v>
       </c>
       <c r="I17" s="3">
-        <v>2804200</v>
+        <v>2788300</v>
       </c>
       <c r="J17" s="3">
+        <v>2672100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2808900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2698200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2730100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>147000</v>
+        <v>153700</v>
       </c>
       <c r="E18" s="3">
-        <v>138200</v>
+        <v>140100</v>
       </c>
       <c r="F18" s="3">
-        <v>-218200</v>
+        <v>93000</v>
       </c>
       <c r="G18" s="3">
-        <v>-14200</v>
+        <v>-207900</v>
       </c>
       <c r="H18" s="3">
-        <v>199200</v>
+        <v>-13600</v>
       </c>
       <c r="I18" s="3">
-        <v>292000</v>
+        <v>189800</v>
       </c>
       <c r="J18" s="3">
+        <v>278300</v>
+      </c>
+      <c r="K18" s="3">
         <v>195100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>185600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>149000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,72 +1078,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-42000</v>
+        <v>-34900</v>
       </c>
       <c r="E20" s="3">
-        <v>-63700</v>
+        <v>-40000</v>
       </c>
       <c r="F20" s="3">
-        <v>-42700</v>
+        <v>-59400</v>
       </c>
       <c r="G20" s="3">
-        <v>-40000</v>
+        <v>-40700</v>
       </c>
       <c r="H20" s="3">
-        <v>-35200</v>
+        <v>-38100</v>
       </c>
       <c r="I20" s="3">
-        <v>-37300</v>
+        <v>-33600</v>
       </c>
       <c r="J20" s="3">
-        <v>-40600</v>
+        <v>-35500</v>
       </c>
       <c r="K20" s="3">
         <v>-40600</v>
       </c>
       <c r="L20" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="M20" s="3">
         <v>-43900</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>181600</v>
+        <v>174300</v>
       </c>
       <c r="E21" s="3">
-        <v>145000</v>
+        <v>173000</v>
       </c>
       <c r="F21" s="3">
-        <v>-186300</v>
+        <v>100700</v>
       </c>
       <c r="G21" s="3">
-        <v>14200</v>
+        <v>-177500</v>
       </c>
       <c r="H21" s="3">
-        <v>233100</v>
+        <v>13600</v>
       </c>
       <c r="I21" s="3">
-        <v>320500</v>
+        <v>222100</v>
       </c>
       <c r="J21" s="3">
+        <v>305400</v>
+      </c>
+      <c r="K21" s="3">
         <v>220200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>210300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,78 +1175,87 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>105000</v>
+        <v>118800</v>
       </c>
       <c r="E23" s="3">
-        <v>74500</v>
+        <v>100100</v>
       </c>
       <c r="F23" s="3">
-        <v>-260800</v>
+        <v>33600</v>
       </c>
       <c r="G23" s="3">
-        <v>-54200</v>
+        <v>-248600</v>
       </c>
       <c r="H23" s="3">
-        <v>164000</v>
+        <v>-51600</v>
       </c>
       <c r="I23" s="3">
-        <v>254700</v>
+        <v>156200</v>
       </c>
       <c r="J23" s="3">
+        <v>242700</v>
+      </c>
+      <c r="K23" s="3">
         <v>154500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>145100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41300</v>
+        <v>12300</v>
       </c>
       <c r="E24" s="3">
-        <v>14200</v>
+        <v>39400</v>
       </c>
       <c r="F24" s="3">
-        <v>-79300</v>
+        <v>7700</v>
       </c>
       <c r="G24" s="3">
-        <v>-2700</v>
+        <v>-75500</v>
       </c>
       <c r="H24" s="3">
-        <v>41300</v>
+        <v>-2600</v>
       </c>
       <c r="I24" s="3">
-        <v>53500</v>
+        <v>39400</v>
       </c>
       <c r="J24" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K24" s="3">
         <v>35200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26600</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63700</v>
+        <v>106500</v>
       </c>
       <c r="E26" s="3">
-        <v>60300</v>
+        <v>60700</v>
       </c>
       <c r="F26" s="3">
-        <v>-181600</v>
+        <v>25800</v>
       </c>
       <c r="G26" s="3">
-        <v>-51500</v>
+        <v>-173000</v>
       </c>
       <c r="H26" s="3">
-        <v>122600</v>
+        <v>-49100</v>
       </c>
       <c r="I26" s="3">
-        <v>201200</v>
+        <v>116900</v>
       </c>
       <c r="J26" s="3">
+        <v>191700</v>
+      </c>
+      <c r="K26" s="3">
         <v>119200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>60300</v>
+        <v>101400</v>
       </c>
       <c r="E27" s="3">
-        <v>56200</v>
+        <v>57500</v>
       </c>
       <c r="F27" s="3">
-        <v>-185000</v>
+        <v>22000</v>
       </c>
       <c r="G27" s="3">
-        <v>-55600</v>
+        <v>-176200</v>
       </c>
       <c r="H27" s="3">
-        <v>119200</v>
+        <v>-52900</v>
       </c>
       <c r="I27" s="3">
-        <v>196500</v>
+        <v>113600</v>
       </c>
       <c r="J27" s="3">
+        <v>187200</v>
+      </c>
+      <c r="K27" s="3">
         <v>116500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,31 +1391,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+        <v>-52900</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>31600</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1400,8 +1426,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42000</v>
+        <v>34900</v>
       </c>
       <c r="E32" s="3">
-        <v>63700</v>
+        <v>40000</v>
       </c>
       <c r="F32" s="3">
-        <v>42700</v>
+        <v>59400</v>
       </c>
       <c r="G32" s="3">
-        <v>40000</v>
+        <v>40700</v>
       </c>
       <c r="H32" s="3">
-        <v>35200</v>
+        <v>38100</v>
       </c>
       <c r="I32" s="3">
-        <v>37300</v>
+        <v>33600</v>
       </c>
       <c r="J32" s="3">
-        <v>40600</v>
+        <v>35500</v>
       </c>
       <c r="K32" s="3">
         <v>40600</v>
       </c>
       <c r="L32" s="3">
+        <v>40600</v>
+      </c>
+      <c r="M32" s="3">
         <v>43900</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>60300</v>
+        <v>48400</v>
       </c>
       <c r="E33" s="3">
-        <v>56200</v>
+        <v>57500</v>
       </c>
       <c r="F33" s="3">
-        <v>-185000</v>
+        <v>53600</v>
       </c>
       <c r="G33" s="3">
-        <v>-55600</v>
+        <v>-176200</v>
       </c>
       <c r="H33" s="3">
-        <v>119200</v>
+        <v>-52900</v>
       </c>
       <c r="I33" s="3">
-        <v>196500</v>
+        <v>113600</v>
       </c>
       <c r="J33" s="3">
+        <v>187200</v>
+      </c>
+      <c r="K33" s="3">
         <v>116500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>60300</v>
+        <v>48400</v>
       </c>
       <c r="E35" s="3">
-        <v>56200</v>
+        <v>57500</v>
       </c>
       <c r="F35" s="3">
-        <v>-185000</v>
+        <v>53600</v>
       </c>
       <c r="G35" s="3">
-        <v>-55600</v>
+        <v>-176200</v>
       </c>
       <c r="H35" s="3">
-        <v>119200</v>
+        <v>-52900</v>
       </c>
       <c r="I35" s="3">
-        <v>196500</v>
+        <v>113600</v>
       </c>
       <c r="J35" s="3">
+        <v>187200</v>
+      </c>
+      <c r="K35" s="3">
         <v>116500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,40 +1708,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>192400</v>
+        <v>885800</v>
       </c>
       <c r="E41" s="3">
-        <v>450500</v>
+        <v>183400</v>
       </c>
       <c r="F41" s="3">
-        <v>128700</v>
+        <v>429300</v>
       </c>
       <c r="G41" s="3">
-        <v>148400</v>
+        <v>122700</v>
       </c>
       <c r="H41" s="3">
-        <v>155100</v>
+        <v>141400</v>
       </c>
       <c r="I41" s="3">
-        <v>241200</v>
+        <v>147800</v>
       </c>
       <c r="J41" s="3">
+        <v>229800</v>
+      </c>
+      <c r="K41" s="3">
         <v>149700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>151700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1721,232 +1776,256 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>858400</v>
+        <v>906400</v>
       </c>
       <c r="E43" s="3">
-        <v>1178200</v>
+        <v>818000</v>
       </c>
       <c r="F43" s="3">
-        <v>1026400</v>
+        <v>1106600</v>
       </c>
       <c r="G43" s="3">
-        <v>1043400</v>
+        <v>978100</v>
       </c>
       <c r="H43" s="3">
-        <v>905100</v>
+        <v>994200</v>
       </c>
       <c r="I43" s="3">
-        <v>924100</v>
+        <v>862500</v>
       </c>
       <c r="J43" s="3">
+        <v>880600</v>
+      </c>
+      <c r="K43" s="3">
         <v>902400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1019400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>883000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1189700</v>
+        <v>865100</v>
       </c>
       <c r="E44" s="3">
-        <v>1184300</v>
+        <v>1133700</v>
       </c>
       <c r="F44" s="3">
-        <v>1219500</v>
+        <v>1006500</v>
       </c>
       <c r="G44" s="3">
-        <v>1119200</v>
+        <v>1162100</v>
       </c>
       <c r="H44" s="3">
-        <v>1175500</v>
+        <v>1066500</v>
       </c>
       <c r="I44" s="3">
-        <v>1002000</v>
+        <v>1120100</v>
       </c>
       <c r="J44" s="3">
+        <v>954800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1053500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1002100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>938900</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>292000</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>4100</v>
+        <v>278300</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G45" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="H45" s="3">
-        <v>8100</v>
+        <v>5200</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
+        <v>7700</v>
       </c>
       <c r="J45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K45" s="3">
         <v>79300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2532500</v>
+        <v>2660500</v>
       </c>
       <c r="E46" s="3">
-        <v>2817000</v>
+        <v>2413300</v>
       </c>
       <c r="F46" s="3">
-        <v>2378700</v>
+        <v>2546200</v>
       </c>
       <c r="G46" s="3">
-        <v>2316400</v>
+        <v>2266700</v>
       </c>
       <c r="H46" s="3">
-        <v>2243900</v>
+        <v>2207300</v>
       </c>
       <c r="I46" s="3">
-        <v>2182900</v>
+        <v>2138200</v>
       </c>
       <c r="J46" s="3">
+        <v>2080100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2184900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2177200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1939600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>102300</v>
+        <v>98100</v>
       </c>
       <c r="E47" s="3">
-        <v>101600</v>
+        <v>97500</v>
       </c>
       <c r="F47" s="3">
-        <v>105000</v>
+        <v>96800</v>
       </c>
       <c r="G47" s="3">
-        <v>100300</v>
+        <v>100100</v>
       </c>
       <c r="H47" s="3">
-        <v>124700</v>
+        <v>95500</v>
       </c>
       <c r="I47" s="3">
-        <v>120600</v>
+        <v>118800</v>
       </c>
       <c r="J47" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K47" s="3">
         <v>103000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1142900</v>
+        <v>1132400</v>
       </c>
       <c r="E48" s="3">
-        <v>1518300</v>
+        <v>1089100</v>
       </c>
       <c r="F48" s="3">
-        <v>1522300</v>
+        <v>1440300</v>
       </c>
       <c r="G48" s="3">
-        <v>1500000</v>
+        <v>1450700</v>
       </c>
       <c r="H48" s="3">
-        <v>1449200</v>
+        <v>1429400</v>
       </c>
       <c r="I48" s="3">
-        <v>1343500</v>
+        <v>1380900</v>
       </c>
       <c r="J48" s="3">
+        <v>1280200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1378000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1478500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1418000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>758100</v>
+        <v>728900</v>
       </c>
       <c r="E49" s="3">
-        <v>1142300</v>
+        <v>722400</v>
       </c>
       <c r="F49" s="3">
-        <v>1177500</v>
+        <v>1482900</v>
       </c>
       <c r="G49" s="3">
-        <v>1136800</v>
+        <v>1122100</v>
       </c>
       <c r="H49" s="3">
-        <v>1265600</v>
+        <v>1083300</v>
       </c>
       <c r="I49" s="3">
-        <v>1154500</v>
+        <v>1206000</v>
       </c>
       <c r="J49" s="3">
+        <v>1100100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1157800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1130500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1049300</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>905800</v>
+        <v>357700</v>
       </c>
       <c r="E52" s="3">
-        <v>227000</v>
+        <v>863200</v>
       </c>
       <c r="F52" s="3">
-        <v>225600</v>
+        <v>338900</v>
       </c>
       <c r="G52" s="3">
-        <v>145000</v>
+        <v>215000</v>
       </c>
       <c r="H52" s="3">
-        <v>87400</v>
+        <v>138200</v>
       </c>
       <c r="I52" s="3">
-        <v>122000</v>
+        <v>83300</v>
       </c>
       <c r="J52" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K52" s="3">
         <v>86000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>93200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5441700</v>
+        <v>4977600</v>
       </c>
       <c r="E54" s="3">
-        <v>5806200</v>
+        <v>5185500</v>
       </c>
       <c r="F54" s="3">
-        <v>5409200</v>
+        <v>5516700</v>
       </c>
       <c r="G54" s="3">
-        <v>5198500</v>
+        <v>5154500</v>
       </c>
       <c r="H54" s="3">
-        <v>5170700</v>
+        <v>4953700</v>
       </c>
       <c r="I54" s="3">
-        <v>4923400</v>
+        <v>4927200</v>
       </c>
       <c r="J54" s="3">
+        <v>4691600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4909800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4991200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4607900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,200 +2228,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>778400</v>
+        <v>809600</v>
       </c>
       <c r="E57" s="3">
-        <v>1048100</v>
+        <v>741800</v>
       </c>
       <c r="F57" s="3">
-        <v>927500</v>
+        <v>998700</v>
       </c>
       <c r="G57" s="3">
-        <v>952600</v>
+        <v>883800</v>
       </c>
       <c r="H57" s="3">
-        <v>860400</v>
+        <v>907700</v>
       </c>
       <c r="I57" s="3">
-        <v>909200</v>
+        <v>819900</v>
       </c>
       <c r="J57" s="3">
+        <v>866400</v>
+      </c>
+      <c r="K57" s="3">
         <v>748600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>875000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>743900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>294000</v>
+        <v>388700</v>
       </c>
       <c r="E58" s="3">
-        <v>125300</v>
+        <v>280200</v>
       </c>
       <c r="F58" s="3">
-        <v>1152400</v>
+        <v>119400</v>
       </c>
       <c r="G58" s="3">
-        <v>182200</v>
+        <v>1098200</v>
       </c>
       <c r="H58" s="3">
-        <v>212700</v>
+        <v>173700</v>
       </c>
       <c r="I58" s="3">
-        <v>279800</v>
+        <v>202700</v>
       </c>
       <c r="J58" s="3">
+        <v>266600</v>
+      </c>
+      <c r="K58" s="3">
         <v>312300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>226200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>519600</v>
+        <v>306000</v>
       </c>
       <c r="E59" s="3">
-        <v>956600</v>
+        <v>495200</v>
       </c>
       <c r="F59" s="3">
-        <v>1069100</v>
+        <v>807000</v>
       </c>
       <c r="G59" s="3">
-        <v>217500</v>
+        <v>1018800</v>
       </c>
       <c r="H59" s="3">
-        <v>89400</v>
+        <v>207200</v>
       </c>
       <c r="I59" s="3">
-        <v>164000</v>
+        <v>85200</v>
       </c>
       <c r="J59" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K59" s="3">
         <v>199200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>194300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>134400</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1592100</v>
+        <v>1504200</v>
       </c>
       <c r="E60" s="3">
-        <v>1705900</v>
+        <v>1517200</v>
       </c>
       <c r="F60" s="3">
-        <v>2653100</v>
+        <v>1521000</v>
       </c>
       <c r="G60" s="3">
-        <v>1352300</v>
+        <v>2528200</v>
       </c>
       <c r="H60" s="3">
-        <v>1162600</v>
+        <v>1288600</v>
       </c>
       <c r="I60" s="3">
-        <v>1353000</v>
+        <v>1107800</v>
       </c>
       <c r="J60" s="3">
+        <v>1289300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1260200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1295500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1079300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>917300</v>
+        <v>706900</v>
       </c>
       <c r="E61" s="3">
-        <v>1187700</v>
+        <v>874100</v>
       </c>
       <c r="F61" s="3">
-        <v>411200</v>
+        <v>1131700</v>
       </c>
       <c r="G61" s="3">
-        <v>1289300</v>
+        <v>391900</v>
       </c>
       <c r="H61" s="3">
-        <v>1325200</v>
+        <v>1228600</v>
       </c>
       <c r="I61" s="3">
-        <v>907200</v>
+        <v>1262800</v>
       </c>
       <c r="J61" s="3">
+        <v>864500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1041300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1074000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1072600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>106400</v>
+        <v>72300</v>
       </c>
       <c r="E62" s="3">
-        <v>106400</v>
+        <v>101400</v>
       </c>
       <c r="F62" s="3">
-        <v>112500</v>
+        <v>189800</v>
       </c>
       <c r="G62" s="3">
-        <v>131400</v>
+        <v>107200</v>
       </c>
       <c r="H62" s="3">
-        <v>157200</v>
+        <v>125200</v>
       </c>
       <c r="I62" s="3">
-        <v>147700</v>
+        <v>149800</v>
       </c>
       <c r="J62" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K62" s="3">
         <v>143000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>153000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>151700</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2631400</v>
+        <v>2304100</v>
       </c>
       <c r="E66" s="3">
-        <v>3016200</v>
+        <v>2507500</v>
       </c>
       <c r="F66" s="3">
-        <v>3193100</v>
+        <v>2858100</v>
       </c>
       <c r="G66" s="3">
-        <v>2789300</v>
+        <v>3042700</v>
       </c>
       <c r="H66" s="3">
-        <v>2659200</v>
+        <v>2657900</v>
       </c>
       <c r="I66" s="3">
-        <v>2422700</v>
+        <v>2534000</v>
       </c>
       <c r="J66" s="3">
+        <v>2308700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2458000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2540500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2318300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>659900</v>
+        <v>586900</v>
       </c>
       <c r="E72" s="3">
-        <v>611800</v>
+        <v>628800</v>
       </c>
       <c r="F72" s="3">
-        <v>554900</v>
+        <v>583000</v>
       </c>
       <c r="G72" s="3">
-        <v>832600</v>
+        <v>528700</v>
       </c>
       <c r="H72" s="3">
-        <v>983700</v>
+        <v>793400</v>
       </c>
       <c r="I72" s="3">
-        <v>956600</v>
+        <v>937400</v>
       </c>
       <c r="J72" s="3">
+        <v>911600</v>
+      </c>
+      <c r="K72" s="3">
         <v>848200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>698700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>543600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2810300</v>
+        <v>2673400</v>
       </c>
       <c r="E76" s="3">
-        <v>2789900</v>
+        <v>2677900</v>
       </c>
       <c r="F76" s="3">
-        <v>2216100</v>
+        <v>2658600</v>
       </c>
       <c r="G76" s="3">
-        <v>2409200</v>
+        <v>2111800</v>
       </c>
       <c r="H76" s="3">
-        <v>2511500</v>
+        <v>2295800</v>
       </c>
       <c r="I76" s="3">
-        <v>2500700</v>
+        <v>2393200</v>
       </c>
       <c r="J76" s="3">
+        <v>2382900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2451900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2450700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2289600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>60300</v>
+        <v>48400</v>
       </c>
       <c r="E81" s="3">
-        <v>56200</v>
+        <v>57500</v>
       </c>
       <c r="F81" s="3">
-        <v>-185000</v>
+        <v>53600</v>
       </c>
       <c r="G81" s="3">
-        <v>-55600</v>
+        <v>-176200</v>
       </c>
       <c r="H81" s="3">
-        <v>119200</v>
+        <v>-52900</v>
       </c>
       <c r="I81" s="3">
-        <v>196500</v>
+        <v>113600</v>
       </c>
       <c r="J81" s="3">
+        <v>187200</v>
+      </c>
+      <c r="K81" s="3">
         <v>116500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,40 +3033,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>76600</v>
+        <v>55500</v>
       </c>
       <c r="E83" s="3">
-        <v>70500</v>
+        <v>73000</v>
       </c>
       <c r="F83" s="3">
-        <v>74500</v>
+        <v>67100</v>
       </c>
       <c r="G83" s="3">
-        <v>68400</v>
+        <v>71000</v>
       </c>
       <c r="H83" s="3">
-        <v>69100</v>
+        <v>65200</v>
       </c>
       <c r="I83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K83" s="3">
         <v>65700</v>
       </c>
-      <c r="J83" s="3">
-        <v>65700</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-101600</v>
+        <v>195600</v>
       </c>
       <c r="E89" s="3">
-        <v>193800</v>
+        <v>-96800</v>
       </c>
       <c r="F89" s="3">
-        <v>74500</v>
+        <v>184600</v>
       </c>
       <c r="G89" s="3">
-        <v>210000</v>
+        <v>71000</v>
       </c>
       <c r="H89" s="3">
-        <v>-45400</v>
+        <v>200100</v>
       </c>
       <c r="I89" s="3">
-        <v>332000</v>
+        <v>-43300</v>
       </c>
       <c r="J89" s="3">
+        <v>316300</v>
+      </c>
+      <c r="K89" s="3">
         <v>115200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>285500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-94200</v>
+        <v>-134900</v>
       </c>
       <c r="E91" s="3">
-        <v>-117200</v>
+        <v>-89700</v>
       </c>
       <c r="F91" s="3">
-        <v>-88800</v>
+        <v>-111700</v>
       </c>
       <c r="G91" s="3">
-        <v>-130100</v>
+        <v>-84600</v>
       </c>
       <c r="H91" s="3">
-        <v>-86000</v>
+        <v>-124000</v>
       </c>
       <c r="I91" s="3">
-        <v>-120600</v>
+        <v>-82000</v>
       </c>
       <c r="J91" s="3">
+        <v>-114900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-82700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-107800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77200</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-46100</v>
+        <v>634000</v>
       </c>
       <c r="E94" s="3">
-        <v>-75900</v>
+        <v>-43900</v>
       </c>
       <c r="F94" s="3">
-        <v>-78600</v>
+        <v>-72300</v>
       </c>
       <c r="G94" s="3">
-        <v>-118600</v>
+        <v>-74900</v>
       </c>
       <c r="H94" s="3">
-        <v>-292700</v>
+        <v>-113000</v>
       </c>
       <c r="I94" s="3">
-        <v>18300</v>
+        <v>-278900</v>
       </c>
       <c r="J94" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-50800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-84500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3262,28 +3461,31 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-83300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-83300</v>
+        <v>-79400</v>
       </c>
       <c r="H96" s="3">
-        <v>-83300</v>
+        <v>-79400</v>
       </c>
       <c r="I96" s="3">
-        <v>-79300</v>
+        <v>-79400</v>
       </c>
       <c r="J96" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-79900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82500</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,100 +3586,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-109800</v>
+        <v>-124600</v>
       </c>
       <c r="E100" s="3">
-        <v>202600</v>
+        <v>-104600</v>
       </c>
       <c r="F100" s="3">
-        <v>-18300</v>
+        <v>193000</v>
       </c>
       <c r="G100" s="3">
-        <v>-96200</v>
+        <v>-17400</v>
       </c>
       <c r="H100" s="3">
-        <v>251400</v>
+        <v>-91700</v>
       </c>
       <c r="I100" s="3">
-        <v>-254100</v>
+        <v>239500</v>
       </c>
       <c r="J100" s="3">
+        <v>-242100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-64400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-137700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-46600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-700</v>
+        <v>-2600</v>
       </c>
       <c r="E101" s="3">
-        <v>1400</v>
+        <v>-600</v>
       </c>
       <c r="F101" s="3">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>2600</v>
       </c>
       <c r="H101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-258100</v>
+        <v>702400</v>
       </c>
       <c r="E102" s="3">
-        <v>321800</v>
+        <v>-246000</v>
       </c>
       <c r="F102" s="3">
-        <v>-19600</v>
+        <v>306700</v>
       </c>
       <c r="G102" s="3">
-        <v>-6800</v>
+        <v>-18700</v>
       </c>
       <c r="H102" s="3">
-        <v>-86000</v>
+        <v>-6500</v>
       </c>
       <c r="I102" s="3">
-        <v>91500</v>
+        <v>-82000</v>
       </c>
       <c r="J102" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6700</v>
       </c>
     </row>
